--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gal-Gpr151.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gal-Gpr151.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.020062</v>
+        <v>0.03644533333333334</v>
       </c>
       <c r="H2">
-        <v>3.060186</v>
+        <v>0.109336</v>
       </c>
       <c r="I2">
-        <v>0.02710251114301613</v>
+        <v>0.005561955322140003</v>
       </c>
       <c r="J2">
-        <v>0.02710251114301613</v>
+        <v>0.005561955322140003</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.040201333333333</v>
+        <v>0.3613943333333333</v>
       </c>
       <c r="N2">
-        <v>3.120604</v>
+        <v>1.084183</v>
       </c>
       <c r="O2">
-        <v>0.3615648044932879</v>
+        <v>0.194831931013823</v>
       </c>
       <c r="P2">
-        <v>0.361564804493288</v>
+        <v>0.194831931013823</v>
       </c>
       <c r="Q2">
-        <v>1.061069852482667</v>
+        <v>0.01317113694311111</v>
       </c>
       <c r="R2">
-        <v>9.549628672344001</v>
+        <v>0.118540232488</v>
       </c>
       <c r="S2">
-        <v>0.009799314142701784</v>
+        <v>0.001083646495625147</v>
       </c>
       <c r="T2">
-        <v>0.009799314142701788</v>
+        <v>0.001083646495625147</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.020062</v>
+        <v>0.03644533333333334</v>
       </c>
       <c r="H3">
-        <v>3.060186</v>
+        <v>0.109336</v>
       </c>
       <c r="I3">
-        <v>0.02710251114301613</v>
+        <v>0.005561955322140003</v>
       </c>
       <c r="J3">
-        <v>0.02710251114301613</v>
+        <v>0.005561955322140003</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.229979</v>
       </c>
       <c r="O3">
-        <v>0.3742373994433212</v>
+        <v>0.5804398756520781</v>
       </c>
       <c r="P3">
-        <v>0.3742373994433211</v>
+        <v>0.5804398756520782</v>
       </c>
       <c r="Q3">
-        <v>1.098259612899333</v>
+        <v>0.03923922043822223</v>
       </c>
       <c r="R3">
-        <v>9.884336516094001</v>
+        <v>0.353152983944</v>
       </c>
       <c r="S3">
-        <v>0.01014277328854599</v>
+        <v>0.003228380655565357</v>
       </c>
       <c r="T3">
-        <v>0.01014277328854599</v>
+        <v>0.003228380655565358</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.020062</v>
+        <v>0.03644533333333334</v>
       </c>
       <c r="H4">
-        <v>3.060186</v>
+        <v>0.109336</v>
       </c>
       <c r="I4">
-        <v>0.02710251114301613</v>
+        <v>0.005561955322140003</v>
       </c>
       <c r="J4">
-        <v>0.02710251114301613</v>
+        <v>0.005561955322140003</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.760082</v>
+        <v>0.416849</v>
       </c>
       <c r="N4">
-        <v>2.280246</v>
+        <v>1.250547</v>
       </c>
       <c r="O4">
-        <v>0.2641977960633909</v>
+        <v>0.2247281933340989</v>
       </c>
       <c r="P4">
-        <v>0.2641977960633909</v>
+        <v>0.2247281933340989</v>
       </c>
       <c r="Q4">
-        <v>0.775330765084</v>
+        <v>0.01519220075466667</v>
       </c>
       <c r="R4">
-        <v>6.977976885756001</v>
+        <v>0.136729806792</v>
       </c>
       <c r="S4">
-        <v>0.007160423711768354</v>
+        <v>0.001249928170949498</v>
       </c>
       <c r="T4">
-        <v>0.007160423711768355</v>
+        <v>0.001249928170949499</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>36.61711466666667</v>
+        <v>6.516166333333334</v>
       </c>
       <c r="H5">
-        <v>109.851344</v>
+        <v>19.548499</v>
       </c>
       <c r="I5">
-        <v>0.9728974888569838</v>
+        <v>0.99443804467786</v>
       </c>
       <c r="J5">
-        <v>0.9728974888569839</v>
+        <v>0.99443804467786</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.040201333333333</v>
+        <v>0.3613943333333333</v>
       </c>
       <c r="N5">
-        <v>3.120604</v>
+        <v>1.084183</v>
       </c>
       <c r="O5">
-        <v>0.3615648044932879</v>
+        <v>0.194831931013823</v>
       </c>
       <c r="P5">
-        <v>0.361564804493288</v>
+        <v>0.194831931013823</v>
       </c>
       <c r="Q5">
-        <v>38.08917149908622</v>
+        <v>2.354905587924111</v>
       </c>
       <c r="R5">
-        <v>342.802543491776</v>
+        <v>21.194150291317</v>
       </c>
       <c r="S5">
-        <v>0.3517654903505861</v>
+        <v>0.1937482845181978</v>
       </c>
       <c r="T5">
-        <v>0.3517654903505862</v>
+        <v>0.1937482845181978</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>36.61711466666667</v>
+        <v>6.516166333333334</v>
       </c>
       <c r="H6">
-        <v>109.851344</v>
+        <v>19.548499</v>
       </c>
       <c r="I6">
-        <v>0.9728974888569838</v>
+        <v>0.99443804467786</v>
       </c>
       <c r="J6">
-        <v>0.9728974888569839</v>
+        <v>0.99443804467786</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>3.229979</v>
       </c>
       <c r="O6">
-        <v>0.3742373994433212</v>
+        <v>0.5804398756520781</v>
       </c>
       <c r="P6">
-        <v>0.3742373994433211</v>
+        <v>0.5804398756520782</v>
       </c>
       <c r="Q6">
-        <v>39.42417047130845</v>
+        <v>7.015693472391224</v>
       </c>
       <c r="R6">
-        <v>354.817534241776</v>
+        <v>63.141241251521</v>
       </c>
       <c r="S6">
-        <v>0.3640946261547752</v>
+        <v>0.5772114949965128</v>
       </c>
       <c r="T6">
-        <v>0.3640946261547752</v>
+        <v>0.5772114949965129</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>36.61711466666667</v>
+        <v>6.516166333333334</v>
       </c>
       <c r="H7">
-        <v>109.851344</v>
+        <v>19.548499</v>
       </c>
       <c r="I7">
-        <v>0.9728974888569838</v>
+        <v>0.99443804467786</v>
       </c>
       <c r="J7">
-        <v>0.9728974888569839</v>
+        <v>0.99443804467786</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.760082</v>
+        <v>0.416849</v>
       </c>
       <c r="N7">
-        <v>2.280246</v>
+        <v>1.250547</v>
       </c>
       <c r="O7">
-        <v>0.2641977960633909</v>
+        <v>0.2247281933340989</v>
       </c>
       <c r="P7">
-        <v>0.2641977960633909</v>
+        <v>0.2247281933340989</v>
       </c>
       <c r="Q7">
-        <v>27.83200975006934</v>
+        <v>2.716257419883667</v>
       </c>
       <c r="R7">
-        <v>250.488087750624</v>
+        <v>24.446316778953</v>
       </c>
       <c r="S7">
-        <v>0.2570373723516225</v>
+        <v>0.2234782651631494</v>
       </c>
       <c r="T7">
-        <v>0.2570373723516226</v>
+        <v>0.2234782651631494</v>
       </c>
     </row>
   </sheetData>
